--- a/glossary_links.xlsx
+++ b/glossary_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>UrlName</t>
   </si>
@@ -167,6 +167,156 @@
   </si>
   <si>
     <t>http://cert-www.lexisnexis.co.uk/legal/guidance/negative-declarations</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/tupe-issues-arising-in-property-transactions</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/legal-regime-applicable-to-section-92b-rights-gmps-from-6-april-2016</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/report-on-title-property-report-for-leasehold-occupier</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/managing-the-risks-excluding-personal-liability-for-administrators</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/policy-parental-leave-short-form</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/aaa-commercial-rules-costs-fees</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/construction-insolvency-the-third-parties-rights-against-insurers-acts</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/pre-6-april-2015-rule-36-deciding-whether-to-accept-a-part-36-offer-archived</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/investment-treaty-arbitration-in-japan-getting-the-deal-through-guide</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/case-c-595-17-apple-sales-international-archived</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/security-for-costs-under-the-arbitration-rules-of-major-arbitral-institutions-those-of-uncitral</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/aarhus-convention-access-to-justice</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/house-of-lords</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/military-claims</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/creating-an-effective-anti-counterfeiting-strategy</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/the-role-of-national-grid-in-the-great-britain-energy-market</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/international-sovereign-immunity-guide-cyprus</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/tenant-improvements</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/interim-injunctions-the-american-cyanamid-guidelines</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/glossary-of-scottish-insolvency-words-expressions</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/force-majeure-consequences-contract-discharge</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/market-abuse-regulation-insider-dealing</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/debenture-single-company-chargor-bilateral-specific-monies</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/agricultural-partnerships-joint-venture-agreements-which-to-use</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/benefits-means-testing</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/clauses-garden-leave</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/business-continuity-plan-bcp</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/individual-option-holder-power-of-attorney</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/subscription-agreement-directors-employees</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/partners-applying-for-leave-to-remain-application-procedure</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/lcia-request-for-arbitration</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/prohibited-conduct-sample-questions-disability-discrimination</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/letter-to-tribunal-requesting-an-additional-award-under-the-arbitration-act-1996-s-573b</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/representations-warranties-in-debt-capital-markets-transactions</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/insolvency-in-the-life-sciences-industry</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/introduction-to-copyright-associated-rights</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/employee-status</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/occupational-pension-schemes-disclosure-requirements-before-6-april-2014-archived</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/private-hearings-restricted-reporting-protecting-individuals-identity-national-security-employment-tribunals</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/lease-of-bare-land-to-an-electronic-communications-operator-new-code</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/warehouse-financing</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/insurance-conduct-regulation-cobs-icobs</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/the-chartered-governance-institute-model-terms-of-reference-audit-committee</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/case-c-516-15-akzo-nobel-others-v-commission-heat-stabilisers-cartel-archived</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/investment-treaty-arbitration-in-ukraine-getting-the-deal-through-guide</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/report-on-title-investment-acquisition-main-report-freehold</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/patent-licence-pro-licensee</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/tax-implications-of-contractual-joint-ventures</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/letter-tupe-2-from-transferor-or-transferee-to-their-employees-about-the-election-of-employee-representatives</t>
+  </si>
+  <si>
+    <t>http://cert-www.lexisnexis.co.uk/legal/guidance/commercial-paper-euro-commercial-paper</t>
   </si>
 </sst>
 </file>
@@ -537,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,6 +946,256 @@
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -850,6 +1250,56 @@
     <hyperlink ref="A49" r:id="rId48"/>
     <hyperlink ref="A50" r:id="rId49"/>
     <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
